--- a/Psychometric Papers/Psychometric_Papers.xlsx
+++ b/Psychometric Papers/Psychometric_Papers.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -26,6 +26,9 @@
     <t xml:space="preserve">Year</t>
   </si>
   <si>
+    <t xml:space="preserve">DOI_Link</t>
+  </si>
+  <si>
     <t xml:space="preserve">Abstract</t>
   </si>
   <si>
@@ -47,6 +50,9 @@
     <t xml:space="preserve">Psychological Assessment</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1037/a0034891</t>
+  </si>
+  <si>
     <t xml:space="preserve">Irritable mood is implicated in a range of psychiatric conditions in both adults and adolescents. Research into appropriate measures of irritability, however, has been sparse. Recently, Stringaris et al. (2012) published the Affective Reactivity Index (ARI), a measure of chronic irritability with promising psychometric properties. This article presents psychometric properties of the ARI with Australian adolescents and, for the first time, with adults. The adolescent sample (n = 396) was recruited from 11 secondary schools in southeastern Australia. The adult sample (n = 221) was recruited through poster and online advertising. Both samples completed a battery of measures (including the ARI, Reynolds Adolescent Depression Scale-2, Strengths and Difficulties Questionnaire, Center for Epidemiologic Studies Depression Scale, Generalized Anxiety Disorder Screen, and Liebowitz Social Anxiety Scale) on a single occasion, and a subsample of adults (n = 32) completed the ARI a 2nd time after 1 week to establish test-retest reliability. Parent and self-report scales had excellent internal consistency and correlated well with each other. Test-retest reliability was also very good in the adult sample (intraclass correlation coefficient = .80). Convergent validity was demonstrated, as irritability was related to psychopathology in both adults and adolescents as expected. The ARI is a brief, easy-to-use scale to measure chronic irritability, with promising psychometric properties for use with Australian adults and adolescents.</t>
   </si>
   <si>
@@ -63,6 +69,9 @@
   </si>
   <si>
     <t xml:space="preserve">Trends in Psychiatry and Psychotherapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1590/s2237-60892013000300004</t>
   </si>
   <si>
     <t xml:space="preserve">Objective: To describe the cross-cultural adaptation of the Affective Reactivity Index (ARI) to Brazilian Portuguese and to investigate preliminary psychometric properties of the adapted version.
@@ -80,6 +89,9 @@
     <t xml:space="preserve">Nurs Res</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1097/nnr.0000000000000411</t>
+  </si>
+  <si>
     <t xml:space="preserve">BACKGROUND:Irritability is common among people who are physically ill, but a physical underpinning of irritability is not assessed by existing measures. A measure that assesses multidimensionality of irritability can help nurses and clinicians provide better care for people with cancer and, thus, reduce a risk for developing depression during cancer treatment.OBJECTIVES:We pilot tested a new measure, The Irritability Scale-Initial Version (TISi), for assessing irritability of cancer patients on three dimensions: physical, affective, and behavioral.METHODS:We conducted thee pilot studies to develop the 35-item TISi on a 5-point Likert scale. TISi was tested in 48 early-stage, nonmetastasized breast cancer patients at baseline (before) and 3 months (during chemotherapy). Of these patients, 62.5% received neoadjuvant and 37.5% received adjuvant chemotherapy, but none received hormonal treatment before or during the study. Measures of other correlates, including depression, anxiety, symptom distress, and social disconnectedness, were also administered, and biomarkers of hsCRP, TNF-α, IL-6, and BDNF were obtained from blood draws at both assessments.RESULTS:TISi has a high internal consistency (Cronbach's α = .97), satisfactory test-retest reliability (retest r = .69, intraclass correlation coefficient = .86), and moderate correlation with other constructs over time (r ≈ .40-.70). Its physical subscale significantly correlated with hsCRP (r = .32, p = .025) at baseline and TNF-α (r = .44, p = .002) at 3 months. A confirmatory factor analysis yields three factor loadings that are in line with conceptualization of the subscales.DISCUSSION:The findings support psychometric properties of TISi and its application for assessing cancer patients' irritability in multiple dimensions. Further investigation using a large study sample is necessary for improving construct and criterion validity and reducing item redundancy.CONCLUSION:TISi can be used to measure the level of irritability in cancer patients.</t>
   </si>
   <si>
@@ -95,6 +107,9 @@
     <t xml:space="preserve">Behav Ther</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.beth.2019.10.005</t>
+  </si>
+  <si>
     <t xml:space="preserve">Irritability is impairing in youth and is the core feature of disruptive mood dysregulation disorder (DMDD). Currently, there are no established clinician-rated instruments to assess irritability in pediatric research and clinical settings. Clinician-rated measures ensure consistency of assessment across patients and are important specifically for treatment research. Here, we present data on the psychometric properties of the Clinician Affective Reactivity Index (CL-ARI), the first semistructured interview focused on pediatric irritability. The CL-ARI was administered to a transdiagnostic sample of 98 youth (M age = 12.66, SD = 2.47; 41% female). With respect to convergent validity, CL-ARI scores were (a) significantly higher for youth with DMDD than for any other diagnostic group, and (b) showed uniquely strong associations with other clinician-, parent-, and youth-report measures of irritability compared to measures of related constructs, such as anxiety. The three subscales of the CL-ARI (temper outbursts, irritable mood, impairment) showed excellent internal consistency. Test-retest reliability of the CL-ARI was adequate. These data support that irritability can be feasibly, validly, and reliably assessed by clinicians using the CL-ARI. A validated, gold-standard assessment of pediatric irritability is critical in advancing research and treatment efforts.</t>
   </si>
   <si>
@@ -108,6 +123,9 @@
   </si>
   <si>
     <t xml:space="preserve">J Child Psychol Psychiatry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1111%2Fjcpp.13104</t>
   </si>
   <si>
     <t xml:space="preserve">Background
@@ -129,6 +147,9 @@
     <t xml:space="preserve">Sci Rep</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1038%2Fs41598-019-39227-w</t>
+  </si>
+  <si>
     <t xml:space="preserve">Recent studies highlight the role of excessive mind wandering in attention-deficit/hyperactivity disorder (ADHD) and its association with impairment. We believe assessing mind wandering could be especially relevant to individuals, including many females, who present with less externalising manifestations of ADHD. Using a new measure based on ADHD patient reports, the Mind Excessively Wandering Scale (MEWS), we previously found adults with ADHD had elevated levels of mind wandering that contributed to impairment independently of core ADHD symptoms. Using data from an online general population survey, the current study assessed the factor-structure, reliability, validity and measurement invariance of the MEWS. We also investigated sex differences in mind wandering, as well as ADHD symptoms, impairment and wellbeing in those with and without ADHD. The MEWS had a unidimensional structure, was invariant across sex, age and ADHD status, and accounted for unique variance in impairment and wellbeing beyond core ADHD symptoms. Among those with ADHD, we found no evidence for sex differences in mind wandering and among those without ADHD males had higher scores. We also found similar levels of hyperactivity/impulsivity, emotional lability, and impairment in males and females with ADHD, but males reported greater inattention and lower wellbeing. Results suggest the MEWS is a reliable and valid instrument measuring the same construct across sex, age and ADHD status, which could aid diagnosis and monitoring of outcomes.</t>
   </si>
   <si>
@@ -144,6 +165,9 @@
     <t xml:space="preserve">J Child Fam Stud</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1007%2Fs10826-018-1272-4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Disruptive behavior in childhood is common. It spans from normative child misbehaviors to clinically-significant and impairing problems. While there are many rating scales evaluating such behaviors, historically, measurement has emphasized counting the number of symptoms present rather than assessing the normal-abnormal spectrum of behavioral expression. This study uses data from 644 early school age children aggregated from two data sources to statistically link a commonly used symptom count measure, the Child Behavior Checklist (CBCL), to a more developmentally-sensitive measure, the Multidimensional Assessment Profile of Disruptive Behavior (MAP-DB). Two links between conceptually similar scales on each measure were developed: CBCL Conduct Problems and MAP-DB Aggression; and CBCL Oppositional Defiant Problems and MAP-DB Temper Loss. We compared two innovative methods—Item Response Theory (IRT) and Deming regression—to determine the optimal linking relationship. Results suggest IRT methods were superior in reducing linking error compared to Deming regression. While Deming regression accurately modeled the mean scores (thus minimizing linking bias), this method could not adequately address the floor effect for scores on the CBCL. For practical purposes, this study provides a crosswalk of score conversions between the CBCL and MAP-DB, such that data aggregation and group comparisons can be made across the two measures; this enables longitudinal analyses with historically-collected CBCL data to transition to the more innovative dimensional scales of the MAP-DB without undo loss of extant data. This study furthers efforts to shift from historical symptom counts to more developmentally-sensitive measurement across the disruptive behaviors spectrum.</t>
   </si>
   <si>
@@ -159,6 +183,9 @@
     <t xml:space="preserve">J Psychopathol Behav Assess</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1007%2Fs10862-018-9678-2</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Multidimensional Peer Victimization Scale (MPVS; Mynard &amp; Joseph, 2000) is a 16-item self-report scale that captures peer victimization across four dimensions: physical victimization, verbal victimization, social manipulation, and attacks on property. Performance of the scale has not been evaluated among older adolescents. We examined the factor structure, internal consistency reliability, and performance of the scale in two separate epidemiological U.S. samples representing different age groups: 9-14 year olds (N=610) and 15-17 year olds (N=524). The four-factor structure of the scale was affirmed in both samples, however; there was not metric invariance by gender in the younger age group. The scale and its subscales were found to have good internal consistency. Expected relationships between the MPVS and measures of irritability, anxiety, and depression were affirmed. Results support continued use of the MPVS among child and adolescent samples.</t>
   </si>
   <si>
@@ -171,6 +198,9 @@
     <t xml:space="preserve">Assessment</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1177%2F1073191114533814</t>
+  </si>
+  <si>
     <t xml:space="preserve">Elevated levels of irritability have been reported across a range of psychiatric and medical conditions. However, research on the causes, consequences, and treatments of irritability has been hindered by limitations in existing measurement tools. This study aimed to develop a brief, reliable, and valid self-report measure of irritability that is suitable for use among both men and women and that displays minimal overlap with related constructs. First, 63 candidate items were generated, including items from two recent irritability scales. Second, 1,116 participants (877 university students and 229 chronic pain outpatients) completed a survey containing the irritability item pool and standardized measures of related constructs. Item response theory was used to develop a five-item scale (the Brief Irritability Test) with a strong internal structure. All five items displayed minimal conceptual overlap with related constructs (e.g., depression, anger), and test scores displayed negligible gender bias. The Brief Irritability Test shows promise in helping to advance the burgeoning field of irritability research.</t>
   </si>
   <si>
@@ -181,6 +211,9 @@
   </si>
   <si>
     <t xml:space="preserve">The American Journal of Psychiatry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1176/appi.ajp.2012.12071000</t>
   </si>
   <si>
     <t xml:space="preserve">Objective
@@ -202,10 +235,16 @@
     <t xml:space="preserve">Psychological Science in the Public Interest</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1177%2F1529100617727266</t>
+  </si>
+  <si>
     <t xml:space="preserve">The diagnosis of mental disorder initially appears relatively straightforward: Patients present with symptoms or visible signs of illness; health professionals make diagnoses based primarily on these symptoms and signs; and they prescribe medication, psychotherapy, or both, accordingly. However, despite a dramatic expansion of knowledge about mental disorders during the past half century, understanding of their components and processes remains rudimentary. We provide histories and descriptions of three systems with different purposes relevant to understanding and classifying mental disorder. Two major diagnostic manuals—the International Classification of Diseases and the Diagnostic and Statistical Manual of Mental Disorders—provide classification systems relevant to public health, clinical diagnosis, service provision, and specific research applications, the former internationally and the latter primarily for the United States. In contrast, the National Institute of Mental Health’s Research Domain Criteria provides a framework that emphasizes integration of basic behavioral and neuroscience research to deepen the understanding of mental disorder. We identify four key issues that present challenges to understanding and classifying mental disorder: etiology, including the multiple causality of mental disorder; whether the relevant phenomena are discrete categories or dimensions; thresholds, which set the boundaries between disorder and nondisorder; and comorbidity, the fact that individuals with mental illness often meet diagnostic requirements for multiple conditions. We discuss how the three systems’ approaches to these key issues correspond or diverge as a result of their different histories, purposes, and constituencies. Although the systems have varying degrees of overlap and distinguishing features, they share the goal of reducing the burden of suffering due to mental disorder.</t>
   </si>
   <si>
     <t xml:space="preserve">The Brief Irritability Test (BITe) A Measure of Irritability for Use Among Men and Women</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1177%2F1073191114533814</t>
   </si>
   <si>
     <t xml:space="preserve">Elevated levels of irritability have been reported across a range of psychiatric and medical conditions. However, research on the causes, consequences, and treatments of irritability has been hindered by limitations in existing measurement tools. This study aimed to develop a brief, reliable, and valid self-report measure of irritability that is suitable for use among both men and women and that displays minimal overlap with related constructs. First, 63 candidate items were generated, including items from two recent irritability scales. Second, 1,116 participants (877 university students and 229 chronic pain outpatients) completed a survey containing the irritability item pool and standardized measures of related constructs. Item response theory was used to develop a five-item scale (the Brief Irritability Test) with a strong internal structure. All five items displayed minimal conceptual overlap with related constructs (e.g., depression, anger), and test scores displayed negligible gender bias. The Brief Irritability Test shows promise in helping to advance the burgeoning field of irritability research.
@@ -221,6 +260,9 @@
     <t xml:space="preserve">Behavior Therapy</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.beth.2016.01.003</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emotion reactivity, measured via the self-report Emotion Reactivity Scale (ERS), has shown unique associations with different forms of psychopathology and suicidal thoughts and behaviors; however, this limited body of research has been conducted among adults and older adolescents of predominantly White/European ethnic backgrounds. The present study investigated the validity of ERS scores for measuring emotion reactivity among an urban community sample of middle-school-age girls. Participants (N = 93, ages 11–15, 76% African-American, 18% Latina) completed the ERS and measures of emotion coping, internalizing problems, proactive and reactive aggression, negative life events, and lifetime suicidal ideation and substance use. As hypothesized, ERS scores were significantly associated with internalizing problems, poor emotion coping, negative life events, reactive aggression, and suicidal ideation (evidence for convergent validity), but showed little to no association with proactive aggression or lifetime substance use (evidence for discriminant validity). A series of logistic regressions were conducted to further explore the associations among internalizing problems, emotion reactivity, and suicidal ideation. With depressive symptoms included in the model, emotion reactivity was no longer uniquely predictive of lifetime suicidal ideation, nor did it serve as a moderator of other associations. In conjunction with previous research, these findings offer further support for the construct validity and research utility of the ERS as a self-report measure of emotion reactivity in adolescents.</t>
   </si>
   <si>
@@ -233,6 +275,9 @@
     <t xml:space="preserve">Journal of Adolescence</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.adolescence.2014.03.005</t>
+  </si>
+  <si>
     <t xml:space="preserve">Irritability is ubiquitous in child and adolescent psychopathology. This study aimed to determine if the Affective Reactivity Index (ARI), a measure of irritability, could be used to screen for psychopathology in adolescents. The clinical sample comprised 31 adolescents with a DSM-IV diagnosis. The control sample was 31 gender and age matched adolescents recruited through schools. Both samples completed a test battery that included the Affective Reactivity Index. The clinical participants reported significantly higher levels of irritability than the control sample by both self- and parent-report. Using ROC analysis a cut off value of 4 on the self-report ARI was found to be optimal for indicating psychopathology; with a specificity of 77.4% and a sensitivity of 77.4%, the area under the curve was 0.86. This paper provides evidence to suggest that irritability may be used as a general predictor of psychopathology in adolescents.</t>
   </si>
   <si>
@@ -243,6 +288,9 @@
   </si>
   <si>
     <t xml:space="preserve">Journal of Affective Disorders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.jad.2017.01.024</t>
   </si>
   <si>
     <t xml:space="preserve">Background
@@ -269,6 +317,9 @@
   </si>
   <si>
     <t xml:space="preserve">Turkish Journal of Psychiatry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5080/u23408</t>
   </si>
   <si>
     <t xml:space="preserve">Objective: The aim of this study was to evaluate the reliability and validity of the Schedule for Affective Disorders and Schizophrenia for School-Age
@@ -298,6 +349,9 @@
     <t xml:space="preserve">Journal of Clinical Child &amp; Adolescent Psychology</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1080/15374416.2019.1703710</t>
+  </si>
+  <si>
     <t xml:space="preserve">Objective: The Emotion Dysregulation Inventory (EDI) is an informant questionnaire developed based on the Patient-Reported Outcomes Measurement Information System (PROMIS®) Scientific Standards and refined through factor analyses and item response theory (IRT) analyses. Although it was developed to improve measurement of emotion dysregulation in youth with autism spectrum disorder, emotion dysregulation has transdiagnostic significance. Therefore, the aim of this study was to evaluate the EDI’s psychometric properties and to establish IRT-based scores for a general population of youth.
 Methods: Data were collected from a sample of 1000 caregivers of 6- to 17-year-old youth matched to the US census on age, gender, race/ethnicity, years of education, and region. Confirmatory factor analyses and IRT analyses using the two-parameter graded response model were performed to evaluate the EDI’s structure and psychometric properties.
 Results: Analyses supported the original two-factor structure of the EDI, reflecting factors for Reactivity and Dysphoria. Simulations of computerized adaptive testing supported use of the same items for a Reactivity short form as those that emerged as most informative in the original autism psychometric analyses. IRT co-calibration with commonly used measures of emotion regulation and irritability in child clinical or community samples indicated the EDI scales provide more information across a wider range of emotion dysregulation. Validity was supported by moderate correlations with measures of related constructs and expected known-group differences.
@@ -310,6 +364,9 @@
     <t xml:space="preserve">Spencer C. Evans, F. Tony Bonadio, Sarah Kate Bearman, Ana M. Ugueto, Bruce F. Chorpita &amp; John R. Weisz</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1080/15374416.2019.1622119</t>
+  </si>
+  <si>
     <t xml:space="preserve">Research suggests that irritability and defiance are distinct dimensions of youth oppositionality that are differentially associated with internalizing and conduct problems, respectively. Because much of this evidence has emerged with limited psychometric evaluation, we conducted the first multi-informant examination of selected Child Behavior Checklist (CBCL) and Youth Self Report (YSR) items for measuring irritability and defiance in a large clinical sample. Clinically referred youths (N = 1,030; ages 6–15; 43% female, 42% ethnic minority) were assessed prior to treatment using multi-informant rating scales and diagnostic interviews. Analyses examined factor structure, invariance, internal consistency, multi-informant patterns, and convergent, discriminant, and criterion validity with internalizing and externalizing problems/disorders. A correlated 2-factor model of irritability (stubborn/sullen/irritable, mood, temper) and defiance (argues, disobeys-home, disobeys-school) fit well for both informants. Adequate measurement invariance and scale consistency was consistently found for parent-report but not youth-report. With both informants, all hypothesized convergent and discriminant validity associations were supported: irritability and defiance with internalizing and conduct scales, respectively. However, hypothesized criterion validity associations were largely found only by parent-report: irritability with anxiety and depressive disorders, defiance with conduct disorder, and both with oppositional defiant disorder. Results consistently supported the reliability and validity of the CBCL irritability and defiance scales, with somewhat less consistent support for the YSR scales. Thus, CBCL items may provide psychometrically sound assessment of irritability and defiance, whereas further research is needed to advance youth-report and multi-informant strategies. Results also provide further support for a two subdimension model of oppositional defiant disorder symptoms that includes irritability and defiance.</t>
   </si>
   <si>
@@ -322,6 +379,9 @@
     <t xml:space="preserve">Journal of Attention Disorders</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1177%2F1087054717737162</t>
+  </si>
+  <si>
     <t xml:space="preserve">Objective: To develop a scale for emotional regulation using item response theory. Method: Eighteen Swanson Nolan and Pelham (SNAP-IV) items that loaded on an emotional dysregulation factor were submitted to Rasch analysis. After eliminating the items that violated Rasch criteria, the remaining items were examined for reliability and validated against the Conners’ emotional lability index. Results: A nine-item scale for emotional regulation was developed that satisfies the Rasch model and reliably distinguishes emotionally dysregulated/irritable children and adolescents. A score of 4 or higher in this scale has optimal accuracy for identifying children and adolescents with current significant dysfunction in emotional regulation. Among youth with ADHD inattentive, hyperactive–impulsive, and combined types, 42%, 56%, and 71% met the Clinical Evaluation of Emotional Regulation–9 (CEER-9) threshold for emotional lability, respectively. Conclusion: A nine-item scale whose sum total is a measure of emotional regulation is proposed as a tool for clinical and research purposes.</t>
   </si>
   <si>
@@ -332,6 +392,9 @@
   </si>
   <si>
     <t xml:space="preserve">Journal of Child and Adolescent Psychopharmacology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1089/cap.2018.0070</t>
   </si>
   <si>
     <t xml:space="preserve">Objectives: Irritability is among the most bothersome emotional symptoms in children. It often leads to mental health services referral, significant impairment, and distress to their families. Although there is increasing scientific evidence supporting the existence of extreme irritability in the Diagnostic and Statistical Manual of Mental Disorders, 5th ed. (DSM-5) diagnosis of disruptive mood dysregulation disorder, few studies have investigated the measurement of irritability in children. This pilot study aimed to examine the psychometric properties of the Chinese version of the Affective Reactivity Index (ARI) and the Aberrant Behavior Checklist (ABC)-irritability subscale. In addition, we investigated adaptive difficulties among children with irritability.
@@ -346,6 +409,9 @@
     <t xml:space="preserve">Glenn A. Melvin, Bruce J. Tonge, Melissa Mulraney, Michael Gordon, John Taffe, Ester Klimkeit</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.adolescence.2018.02.008</t>
+  </si>
+  <si>
     <t xml:space="preserve">This study assessed the psychometric properties of two visual analogue scales of irritability, known as the Cranky Thermometers (CT), in both an Australian community secondary-school sample (N = 164) and a sample of adolescents with a depressive disorder (N = 127). The first scale Cranky Now measures current irritability, and the second, Cranky Two Weeks, measures peak irritability within the last two weeks. CT scores were significantly higher in adolescents with major depressive disorder than in the school sample and showed improvement following treatment for depression. Positive associations were found between CT and irritability scores as determined by Kiddie Schedule for Affective Disorders and Schizophrenia (not irritable, sub-threshold, threshold irritability) and Affective Reactivity Index scores. Results suggest that the CTs are rapidly administered, have promising psychometric properties and demonstrate utility in measuring irritability in clinical and community settings.</t>
   </si>
   <si>
@@ -358,6 +424,9 @@
     <t xml:space="preserve">Psico</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.15448/1980-8623.2018.2.27433</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aggressive behavior is common in childhood, which requires the use of appropriate instruments to measure them. The aim of this study was to test the measurement invariance of the Peer Aggressive Behavior Scale (PAB-S) and to investigate evidence of validity based on the association with other external variables. Participants were 237 caregivers (M = 38.5; SD = 7.02, 70.6% mothers) and 1,370 children, aged 7 to 13 years (M = 9.87, SD = 1.28, 53.1% girls), students from elementary schools in three Brazilian states. The Multigroup Confirmatory Factor Analysis demonstrated configural, scalar and metric invariance of the PAB-S. The Structural Equation Modeling indicated adequate evidence of concurrent and convergent validity. The results demonstrate adequate psychometric properties of the PAB-S, suggesting its adequacy for use in the Brazilian context. Further studies should be conducted to further evidence the validity and reliability of the PAB-S.</t>
   </si>
   <si>
@@ -365,6 +434,9 @@
   </si>
   <si>
     <t xml:space="preserve">Lourdes Ezpeleta, Eva Penelo, Núriade la Osa, J. Blas Navarro, Esther Trepat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.jad.2019.09.080</t>
   </si>
   <si>
     <t xml:space="preserve">Background
@@ -385,6 +457,9 @@
     <t xml:space="preserve">Lindsay M. Alexander, Giovanni A. Salum, James M. Swanson, Michael P. Milham</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1101/207019</t>
+  </si>
+  <si>
     <t xml:space="preserve">Objective To evaluate the feasibility and value of creating an extensible framework for psychiatric phenotyping that indexes both strengths and weaknesses of behavioral dimensions. The Extended Strengths and Weaknesses Assessment of Normal Behavior (E-SWAN) reconceptualizes each diagnostic criterion for selected DSM-5 disorders as a behavior, which can range from high (strengths) to low (weaknesses). Initial efforts have focused on Panic Disorder, Social Anxiety, Major Depression, and Disruptive Mood Dysregulation Disorder.
 Methods Data were collected from 523 participants (ages: 5-21 years old) in the Child Mind Institute Healthy Brain Network − an ongoing community-referred study. Parents completed each of the four E-SWAN scales and traditional unidirectional scales addressing the same disorders. Distributional properties, Item Response Theory Analysis (IRT) and Receiver Operating Characteristic (ROC) curves (for diagnostic prediction) were used to assess and compare the performance of E-SWAN and traditional scales.
 Results In contrast to the traditional scales, which exhibited truncated distributions, all four E-SWAN scales were found to have near-normal distributions. IRT analyses indicate the E-SWAN subscales provided reliable information about respondents throughout the population distribution; in contrast, traditional scales only provided reliable information about respondents at the high end of the distribution. Predictive value for DSM-5 diagnoses was comparable to prior scales.
@@ -395,6 +470,9 @@
   </si>
   <si>
     <t xml:space="preserve">Lea R. Dougherty, Maria M. Galano, Emma Chad-Friedman, Thomas M. Olino, Sara J. Bufferd, Daniel N. Klein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1177%2F1073191120936363</t>
   </si>
   <si>
     <t xml:space="preserve">Limited psychometric information is available to guide best practices for measuring youth irritability. This report compares performance of irritability measures using item response theory (IRT). Study 1 used a sample of 482 early adolescents and compared the parent- and youth-report affective reactivity index (ARI) and irritability factors derived from the parent-report Child Behavior Checklist (CBCL) and clinician-administered Kiddie Schedule for Affective Disorders (K-SADS). Study 2 combined data from three childhood samples (N = 811) and compared performance of the parent-report ARI and CBCL and the clinician-administered Preschool Age Psychiatric Assessment (PAPA). The ARI emerged as the best measure of childhood irritability across the developmental periods, while the CBCL and K-SADS provided an adequate amount of information in early adolescents. No measure reliably assessed irritability at modest severity levels. Using IRT across large pools of developmental samples and measures is needed to guide the field in the measurement of youth irritability.</t>
@@ -451,6 +529,9 @@
     <t xml:space="preserve">Journal of Autism and Developmental Disorders</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1007/s10803-020-04627-9</t>
+  </si>
+  <si>
     <t xml:space="preserve">Irritability is an impairing problem in children with ASD that may be associated with other behavioral and emotional concerns. The Affective Reactivity Index (ARI) is a parent-rated measure of irritability widely used in children with mood disorders, however, its utility in children with ASD remains unclear. In this study, we examined ARI parent ratings in children with ASD and contributions of parent-rated anxiety and noncompliance to irritability measured by the ARI. Participants included 81 children with ASD, aged 8–16 years. Results suggest that both anxiety and noncompliance contribute to irritability, but that anxiety only contributes to irritability in the absence of noncompliance. Further, the ARI is likely to be a useful measure of irritability in children with ASD.</t>
   </si>
   <si>
@@ -463,6 +544,9 @@
     <t xml:space="preserve">Journal of Personality Assessment</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1080/00223891.2020.1814311</t>
+  </si>
+  <si>
     <t xml:space="preserve">Recent initiatives emphasize the need to consider developmental and transdiagnostic contributions of temperamental variation to psychopathological expression. Triarchic neurobehavioral trait dimensions (boldness, meanness, disinhibition), which demonstrate compatibility with established temperament models and can be quantified using items from different existing inventories, are well-suited to pursuing these goals. We undertook to develop item-based scales for indexing these traits in 285 children (ages 5-10) tested in the Child Mind Institute’s Healthy Brain Network (HBN) study, and evaluated their psychometric properties in two separate samples of similar-aged children: 519 others from the HBN study and 261 for whom parental-informant ratings were obtained through MTurk. Associations with psychopathology measures provided evidence for a) transdiagnostic utility of the triarchic scales, b) (reversed) boldness as the strongest predictor of internalizing problems, c) meanness as related to both internalizing and externalizing problems, d) disinhibition as the strongest predictor of externalizing problems, and e)a moderating effect of meanness level on disinhibition’s relationship with externalizing problems. This research demonstrates that the triarchic traits can be effectively represented in young children and show expected relations with clinical outcome measures. As such, this work provides a foundation for developmental research clarifying the role that core neurobehavioral dispositions play in mental health.</t>
   </si>
   <si>
@@ -470,6 +554,9 @@
   </si>
   <si>
     <t xml:space="preserve">Spencer C. Evans, Madelaine R. Abel, Rachel L. Doyle, Hilary Skov, Sherelle L.Harmon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.jad.2020.11.002</t>
   </si>
   <si>
     <t xml:space="preserve">Background: Research on youth irritability has proliferated in recent years, largely facilitated by items from existing measures and by key new instruments like the Affective Reactivity Index (ARI). The present study extends this literature by investigating the psychometric properties of the parent- and youth-report ARI and the correlates of irritability in an independent, clinically referred sample.
@@ -833,700 +920,790 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
         <v>2013</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2"/>
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
         <v>2013</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3"/>
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
         <v>2020</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4"/>
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
         <v>2020</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5"/>
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
         <v>2020</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6"/>
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D7" t="n">
         <v>2019</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7"/>
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D8" t="n">
         <v>2019</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8"/>
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D9" t="n">
         <v>2018</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9"/>
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D10" t="n">
         <v>2015</v>
       </c>
       <c r="E10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
         <v>49</v>
       </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10"/>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D11" t="n">
         <v>2013</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11"/>
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D12" t="n">
         <v>2017</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12"/>
+        <v>49</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D13" t="n">
         <v>2014</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13"/>
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D14" t="n">
         <v>2016</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14"/>
+        <v>49</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D15" t="n">
         <v>2014</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15"/>
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D16" t="n">
         <v>2017</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16"/>
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D17" t="n">
         <v>2019</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17"/>
+        <v>43</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D18" t="n">
         <v>2020</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18"/>
+        <v>43</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D19" t="n">
         <v>2019</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19"/>
+        <v>49</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D20" t="n">
         <v>2017</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20"/>
+        <v>49</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="D21" t="n">
         <v>2019</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21"/>
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D22" t="n">
         <v>2018</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22"/>
+        <v>43</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="D23" t="n">
         <v>2018</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23"/>
+        <v>49</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D24" t="n">
         <v>2020</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24"/>
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="C25"/>
       <c r="D25" t="n">
         <v>2017</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25"/>
+        <v>43</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D26" t="n">
         <v>2020</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26"/>
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="D27" t="n">
         <v>2019</v>
       </c>
       <c r="E27" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27"/>
+        <v>43</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="D28" t="n">
         <v>2020</v>
       </c>
       <c r="E28" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28"/>
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="D29" t="n">
         <v>2020</v>
       </c>
       <c r="E29" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29"/>
+        <v>43</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D30" t="n">
         <v>2020</v>
       </c>
       <c r="E30" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30"/>
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Psychometric Papers/Psychometric_Papers.xlsx
+++ b/Psychometric Papers/Psychometric_Papers.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -564,6 +564,36 @@
 Results: The ARI's internal consistency and unidimensional factor structure were acceptable or better, with some variation across items and informants. Irritability, as measured by parent- and youth-report, was associated with variables in the externalizing (inattention, hyperactivity, executive dysfunction, aggression), internalizing (anxiety, depression, suicidality), and emotion regulation domains. Associations with reactive aggression, anger, dysregulation, and coping problems were especially pronounced. Irritability's links with internalizing and externalizing problems remained robust after controlling for demographic covariates.
 Limitations: The sample was limited in diversity and moderate in size.
 Conclusions: Findings support the reliability and validity of the ARI for assessing parent- and youth-rated irritability among clinically referred youth. Future research is needed to understand variations in irritability's manifestations, measurement, and correlates across demographic groups.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validation of an irritability measure in preschoolers in school-based and clinical Brazilian samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luisa Shiguemi Sugaya, Katharina Kircanski, Argyris Stringaris, Guilherme V. Polanczyk &amp; Ellen Leibenluft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Child &amp; Adolescent Psychiatry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1007/s00787-020-01701-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Affective Reactivity Index (ARI) is an irritability measure with good psychometric properties. However, there are no published studies in preschool children, an important population in which to differentiate normative from non-normative irritability. The goal of this study was to validate the ARI in preschoolers. Two samples were included: a school-based sample (N = 487, mean age = 57.80 ± 7.23 months, 52.8% male) and a clinical sample of children with Attention Deficit Hyperactivity Disorder (ADHD; N = 153, mean age = 60.5 ± 7.6 months, 83.7% males). Confirmatory factor analysis assessed ARI unidimensionality. ARI criterion validity was tested through comparison to other scales measuring irritability, related constructs, and other aspects of psychopathology. Test–retest reliability was assessed in the school-based sample. Analyses confirmed a single-factor structure and good internal consistency. The ARI showed stronger correlations with irritability measures than with measures of other constructs. In the clinical sample, ADHD children with comorbid disruptive behavior disorders had higher ARI scores than those without this comorbidity. In the school-based sample, test–retest reliability was moderate. This is the first study to demonstrate ARI validity and reliability in preschoolers. The scale performed well in both school-based and clinical samples. Having a concise and validated irritability measure for preschoolers may facilitate both clinical assessment and research on early irritability.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessing beliefs about emotion generation and change: The conceptualisation, development, and validation of the Cognitive Mediation Beliefs Questionnaire (CMBQ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin J. Turner, Andrew G. Wood, Daniel Boatwright, Nanaki Chadha, Jennifer K. Jones, Richard Bennett</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychotherapy Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1080/10503307.2020.1871524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ability to regulate emotions is important for human function and health. That emotion regulation can be achieved through cognitive change is predicated on the notion of cognitive mediation. However, the extent to which individuals believe that their emotions are cognitively mediated (C–M), or in contrast, that their emotions occur via stimulus-response (S-R), is underexplored, and whether C–M and S-R beliefs shape emotion reactivity is not yet known. Research that addresses these empirical needs could inform emotion regulation interventions such as cognitive behavioural therapies (CBTs). The current paper reports the development and initial validity testing of the cognitive mediation beliefs questionnaire (CMBQ). Five studies report the factor structure, the construct and criterion validity, and the test-retest reliability of the CMBQ. The CMBQ was found to have a correlated two-factor structure (C–M change beliefs, and S-R generation beliefs). Higher C–M change beliefs and lower S-R generation beliefs were related to greater emotion regulation, greater thought control ability, higher positive mental health, and lower emotion reactivity. The CMBQ also demonstrated acceptable test-retest reliability. Initial testing indicates that the CMBQ is a valid and reliable questionnaire for psychometric use in adult populations, including those with a diagnosed mental health condition.</t>
   </si>
 </sst>
 </file>
@@ -1705,6 +1735,60 @@
       </c>
       <c r="I30"/>
     </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E31" t="s">
+        <v>154</v>
+      </c>
+      <c r="F31" t="s">
+        <v>155</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E32" t="s">
+        <v>159</v>
+      </c>
+      <c r="F32" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Psychometric Papers/Psychometric_Papers.xlsx
+++ b/Psychometric Papers/Psychometric_Papers.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -594,6 +594,57 @@
   </si>
   <si>
     <t xml:space="preserve">The ability to regulate emotions is important for human function and health. That emotion regulation can be achieved through cognitive change is predicated on the notion of cognitive mediation. However, the extent to which individuals believe that their emotions are cognitively mediated (C–M), or in contrast, that their emotions occur via stimulus-response (S-R), is underexplored, and whether C–M and S-R beliefs shape emotion reactivity is not yet known. Research that addresses these empirical needs could inform emotion regulation interventions such as cognitive behavioural therapies (CBTs). The current paper reports the development and initial validity testing of the cognitive mediation beliefs questionnaire (CMBQ). Five studies report the factor structure, the construct and criterion validity, and the test-retest reliability of the CMBQ. The CMBQ was found to have a correlated two-factor structure (C–M change beliefs, and S-R generation beliefs). Higher C–M change beliefs and lower S-R generation beliefs were related to greater emotion regulation, greater thought control ability, higher positive mental health, and lower emotion reactivity. The CMBQ also demonstrated acceptable test-retest reliability. Initial testing indicates that the CMBQ is a valid and reliable questionnaire for psychometric use in adult populations, including those with a diagnosed mental health condition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Youth and Childhood Adversity Scale:
+A step towards developing a new measure of adversity and its severity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pascal Schlechter, Jessica Fritz, Matthew Cassels, Sharon A.S. Neufeld, Paul O. Wilkinson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background: Early adversity (EA) can contribute to the onset, manifestation, and
+course of various mental disorders. Measuring EA is still conceptually and psychometrically
+challenging due to issues such as content coverage, wording of items, scaling methods, and
+validation procedures.
+Method: To this end, we have developed a 13-item measure of EA, the Youth and
+Childhood Adversity Scale (YCAS). Beyond a dichotomous assessment of whether a set of
+adverse events have been experienced, this scale assesses an important but currently underinvestigated facet of EA: the respective severity of these events. Here, we evaluate the YCAS
+in a sample of 596 adolescent students (ages 16-19) and a second sample of 451 medical
+students (ages 18-30+). We psychometrically assessed both factor scores and sum scores of
+the YCAS.
+Results: In both samples a one-factorial solution was found for both responses to
+dichotomous items and severity items. Item loadings had a broad range, with minimum
+loadings of .1-.2 and maximum loadings of .7-.9. Irrespective of response type, this factor
+exhibited good reliability (omega total) and was associated with a range of mental health
+outcome measures, self-esteem, and childhood maltreatment. The sum score reliability
+(coefficient alpha) was acceptable and most of the associations with the validation measures
+held.
+Conclusions: The YCAS allows an efficient, reliable, and valid assessment of EA.
+The YCAS covers a reasonable breadth of events, while simultaneously being parsimonious.
+The psychometric soundness of the severity facet suggests that the assessment of adversity
+severity may be worthwhile, but needs further examination.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A novel multidimensional questionnaire for the assessment of emotional dysregulation in adolescents: Reactivity, Intensity, Polarity and Stability questionnaire – youth version (RIPoSt–Y).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gianluca Sesso, Annarita Milone, Flavia Drago, Valentina Viglione, Stefano Berloff, Silvia Boldrini, Nina Loriaux, Elena Valente, Agnese Molesti, Francesca Placini, Anna Rita Montesanto, Simone Pisano, Gabriele Masi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.jad.2021.05.037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The failure to regulate emotions, namely emotional dysregulation (ED), is a relevant construct in adolescent psychiatry, in terms of prognostic and developmental implications. We developed and validated a novel self-report questionnaire for the assessment of ED, the RIPoSt-Y, both in clinical and non-clinical samples.
+Methods
+Items selection and subscales construction were conducted on healthy controls (n=374), while test-retest reliability was evaluated in a subsample (n=72); internal consistency was examined both in the control group and in two clinical samples, respectively including patients with Bipolar Spectrum Disorders (BSD; n=44) and ADHD (n=34). Construct, concurrent and convergent validity were also assessed.
+Results
+Thirty-one items were finally retained, and three subscales were identified (Affective Instability, Emotional Reactivity, Interpersonal Sensitivity). Test-retest was significant for each subscale with moderate-to-good correlations, and internal consistency showed good-to-excellent coefficients. Construct validity was supported by significant differences between patients and controls and gender-related differences. Concurrent validity was confirmed through significant associations with two subscales of the CHT-Q, while convergent validity proved to be significant with the CBCL/YSR dysregulation-profile. Cut-offs were also computed to discriminate clinically significant scores of ED.
+Limitations
+The use of a school-based survey to recruit controls could have biased our results; gender distributions between clinical and non-clinical samples were significantly different.
+Conclusions
+Our novel questionnaire proved to be a valid and reliable tool able to assess the presence of ED in youths and to characterize this fundamental construct in its multidimensional facets.</t>
   </si>
 </sst>
 </file>
@@ -923,7 +974,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1788,6 +1839,56 @@
         <v>15</v>
       </c>
       <c r="I32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33" t="s">
+        <v>163</v>
+      </c>
+      <c r="G33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E34" t="s">
+        <v>166</v>
+      </c>
+      <c r="F34" t="s">
+        <v>167</v>
+      </c>
+      <c r="G34" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
